--- a/test_files/data_samples/21-genes_50-edges_Dahlquist-data_Sigmoid_estimation_output.xlsx
+++ b/test_files/data_samples/21-genes_50-edges_Dahlquist-data_Sigmoid_estimation_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="4575" yWindow="240" windowWidth="23340" windowHeight="10995" tabRatio="644" firstSheet="9" activeTab="10"/>
+    <workbookView xWindow="4575" yWindow="240" windowWidth="23340" windowHeight="10995" tabRatio="644" firstSheet="13" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -29,7 +29,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">network!$A$1:$V$22</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="145621" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -156,9 +156,6 @@
     <t>Sigmoid</t>
   </si>
   <si>
-    <t>regulators/controllers</t>
-  </si>
-  <si>
     <t>id</t>
   </si>
   <si>
@@ -181,6 +178,9 @@
   </si>
   <si>
     <t>production_rate</t>
+  </si>
+  <si>
+    <t>targets/regulators</t>
   </si>
 </sst>
 </file>
@@ -660,10 +660,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -956,7 +956,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="8">
         <v>1</v>
@@ -964,7 +964,7 @@
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="2">
         <v>1</v>
@@ -996,7 +996,7 @@
     </row>
     <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B13" s="8">
         <v>15</v>
@@ -1070,7 +1070,7 @@
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1124,9 +1124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1135,10 +1133,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1325,7 +1323,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -2306,7 +2304,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -3287,7 +3285,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -4268,7 +4266,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -5249,7 +5247,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -6232,10 +6230,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" t="s">
         <v>41</v>
-      </c>
-      <c r="B1" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -6415,13 +6413,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
@@ -7937,10 +7935,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -8129,7 +8127,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="6">
         <v>15</v>
@@ -9112,7 +9110,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="6">
         <v>15</v>
@@ -10029,7 +10027,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="6">
         <v>15</v>
@@ -10946,7 +10944,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="6">
         <v>15</v>
@@ -11863,7 +11861,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B1" s="6">
         <v>15</v>
@@ -12800,7 +12798,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>11</v>
@@ -14331,7 +14329,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>

--- a/test_files/data_samples/21-genes_50-edges_Dahlquist-data_Sigmoid_estimation_output.xlsx
+++ b/test_files/data_samples/21-genes_50-edges_Dahlquist-data_Sigmoid_estimation_output.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr date1904="1"/>
   <bookViews>
-    <workbookView xWindow="4575" yWindow="240" windowWidth="23340" windowHeight="10995" tabRatio="644" firstSheet="13" activeTab="17"/>
+    <workbookView xWindow="4575" yWindow="240" windowWidth="23340" windowHeight="10995" tabRatio="644" firstSheet="8" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="production_rates" sheetId="13" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="469" uniqueCount="50">
   <si>
     <t>CIN5</t>
   </si>
@@ -126,9 +126,6 @@
     <t>Strain</t>
   </si>
   <si>
-    <t>Deletion</t>
-  </si>
-  <si>
     <t>wt</t>
   </si>
   <si>
@@ -181,6 +178,12 @@
   </si>
   <si>
     <t>targets/regulators</t>
+  </si>
+  <si>
+    <t>production_function</t>
+  </si>
+  <si>
+    <t>L_curve</t>
   </si>
 </sst>
 </file>
@@ -660,10 +663,10 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E1"/>
       <c r="F1"/>
@@ -877,8 +880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.75" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -954,123 +957,111 @@
         <v>1.0000000000000001E-5</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="B8" s="8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+        <v>48</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="10" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="10" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="B9" s="2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="B10" s="2">
+        <v>41</v>
+      </c>
+      <c r="B10" s="8">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B11" s="8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B12" s="8">
+        <v>31</v>
+      </c>
+      <c r="B12" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="10" t="s">
-        <v>44</v>
+        <v>32</v>
       </c>
       <c r="B13" s="8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B14" s="8">
         <v>15</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>30</v>
       </c>
-      <c r="D13">
+      <c r="D14">
         <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="B14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C14" t="s">
-        <v>35</v>
-      </c>
-      <c r="D14" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A15" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="7">
-        <v>3</v>
-      </c>
-      <c r="C15">
-        <v>4</v>
-      </c>
-      <c r="D15">
-        <v>5</v>
-      </c>
-      <c r="E15">
-        <v>6</v>
-      </c>
-      <c r="F15">
-        <v>7</v>
+      <c r="D15" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" t="s">
+        <v>36</v>
+      </c>
+      <c r="F15" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="10" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B16" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C16">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D16">
+        <v>5</v>
+      </c>
+      <c r="E16">
         <v>6</v>
       </c>
-      <c r="E16">
-        <v>8</v>
-      </c>
       <c r="F16">
-        <v>21</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1133,10 +1124,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1323,7 +1314,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -2304,7 +2295,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -3285,7 +3276,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -4266,7 +4257,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -5247,7 +5238,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1">
         <v>0</v>
@@ -6230,10 +6221,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" t="s">
         <v>40</v>
-      </c>
-      <c r="B1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -6413,13 +6404,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
@@ -7935,10 +7926,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -8127,7 +8118,7 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="6">
         <v>15</v>
@@ -9110,7 +9101,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="6">
         <v>15</v>
@@ -10027,7 +10018,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="6">
         <v>15</v>
@@ -10944,7 +10935,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="6">
         <v>15</v>
@@ -11861,7 +11852,7 @@
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B1" s="6">
         <v>15</v>
@@ -12798,7 +12789,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" s="4" t="s">
         <v>11</v>
@@ -14329,7 +14320,7 @@
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
         <v>11</v>
